--- a/Game/Data/Level2.xlsx
+++ b/Game/Data/Level2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DAE\Semester2\Programming4\GameEngine\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8506D98-DC51-45BE-879B-EBB3BFB4D188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB40101-E05B-4F63-81F3-6E7D916B3261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
   <si>
     <t>P</t>
   </si>
@@ -37,12 +37,6 @@
     <t>LEL</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>TB</t>
   </si>
   <si>
@@ -50,6 +44,18 @@
   </si>
   <si>
     <t>BBL</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,566 +912,761 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L17" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>2</v>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F21"/>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
